--- a/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
+++ b/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1890" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="技能大全" sheetId="1" r:id="rId1"/>
     <sheet name="任务大全" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="升级" sheetId="4" r:id="rId4"/>
-    <sheet name="任务" sheetId="5" r:id="rId5"/>
+    <sheet name="地图" sheetId="6" r:id="rId5"/>
+    <sheet name="任务" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="194">
   <si>
     <t>初始技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -784,6 +785,38 @@
   </si>
   <si>
     <t>辐射翼蛙</t>
+  </si>
+  <si>
+    <t>辐射隔离带</t>
+  </si>
+  <si>
+    <t>辐射矿洞X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射矿洞</t>
+  </si>
+  <si>
+    <t>辐射矿洞-X1</t>
+  </si>
+  <si>
+    <t>辐射矿洞Y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射矿洞Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射矿洞Y4(boss伍德)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射矿洞Y3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射矿洞Y2</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1074,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1051,12 +1090,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1404,33 +1437,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="21" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1458,7 +1491,7 @@
       <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1645,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1636,7 +1669,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1660,7 +1693,7 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1713,7 @@
         <v>190</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1696,15 +1729,15 @@
       <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="24">
         <v>190</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1759,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1748,7 +1781,7 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1770,7 +1803,7 @@
         <v>290</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1788,15 +1821,15 @@
       <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="24">
         <v>290</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="26"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>133</v>
       </c>
@@ -1818,7 +1851,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="25"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="2" t="s">
         <v>99</v>
       </c>
@@ -1840,7 +1873,7 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -1862,7 +1895,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="25"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1884,7 +1917,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1908,7 +1941,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -1926,15 +1959,15 @@
       <c r="P12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="24">
         <v>390</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="26"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -1954,7 +1987,7 @@
         <v>390</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="2" t="s">
         <v>47</v>
       </c>
@@ -1976,7 +2009,7 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
@@ -1998,7 +2031,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
@@ -2020,7 +2053,7 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2036,7 +2069,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2056,7 +2089,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2066,7 +2099,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="25"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="2" t="s">
         <v>53</v>
       </c>
@@ -2080,7 +2113,7 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2090,7 +2123,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="25"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="2" t="s">
         <v>49</v>
       </c>
@@ -2104,7 +2137,7 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2"/>
@@ -2116,7 +2149,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -2128,15 +2161,15 @@
       <c r="P18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="22">
+      <c r="Q18" s="24">
         <v>590</v>
       </c>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="24"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2146,7 +2179,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="2" t="s">
         <v>52</v>
       </c>
@@ -2156,15 +2189,15 @@
       <c r="P19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="22">
+      <c r="Q19" s="24">
         <v>590</v>
       </c>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2174,7 +2207,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="25"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2186,7 +2219,7 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2210,7 +2243,7 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2234,7 +2267,7 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
@@ -2254,7 +2287,7 @@
         <v>690</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="2" t="s">
         <v>70</v>
       </c>
@@ -2276,7 +2309,7 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
@@ -2298,7 +2331,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="2" t="s">
         <v>71</v>
       </c>
@@ -2320,55 +2353,55 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="21" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2396,7 +2429,7 @@
       <c r="J26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2544,7 +2577,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2568,7 +2601,7 @@
         <v>241</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -2594,7 +2627,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
@@ -2614,7 +2647,7 @@
       <c r="J31" s="4">
         <v>190</v>
       </c>
-      <c r="K31" s="25"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="8" t="s">
         <v>83</v>
       </c>
@@ -2638,7 +2671,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
@@ -2660,7 +2693,7 @@
         <v>190</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="25"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="2" t="s">
         <v>86</v>
       </c>
@@ -2682,7 +2715,7 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2704,7 +2737,7 @@
       <c r="J33" s="4">
         <v>290</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="21" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -2730,7 +2763,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
@@ -2752,7 +2785,7 @@
         <v>371</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="25"/>
+      <c r="K34" s="21"/>
       <c r="L34" s="2" t="s">
         <v>87</v>
       </c>
@@ -2776,7 +2809,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -2798,7 +2831,7 @@
         <v>290</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="25"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="2" t="s">
         <v>88</v>
       </c>
@@ -2820,7 +2853,7 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -2842,7 +2875,7 @@
       <c r="J36" s="4">
         <v>390</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -2868,7 +2901,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
@@ -2890,7 +2923,7 @@
         <v>371</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="25"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
@@ -2914,7 +2947,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -2936,7 +2969,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="25"/>
+      <c r="K38" s="21"/>
       <c r="L38" s="2" t="s">
         <v>89</v>
       </c>
@@ -2958,7 +2991,7 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
@@ -2970,7 +3003,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -2996,7 +3029,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -3010,7 +3043,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="25"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="6" t="s">
         <v>67</v>
       </c>
@@ -3028,7 +3061,7 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
@@ -3040,7 +3073,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="25"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="2" t="s">
         <v>90</v>
       </c>
@@ -3062,7 +3095,7 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2"/>
@@ -3074,7 +3107,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="21" t="s">
         <v>50</v>
       </c>
       <c r="L42" s="2"/>
@@ -3088,7 +3121,7 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3098,7 +3131,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="25"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -3110,7 +3143,7 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3120,7 +3153,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="25"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -3132,7 +3165,7 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3156,7 +3189,7 @@
         <v>891</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L45" s="2"/>
@@ -3170,7 +3203,7 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
@@ -3192,7 +3225,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="25"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -3204,7 +3237,7 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -3224,7 +3257,7 @@
       <c r="J47" s="4">
         <v>690</v>
       </c>
-      <c r="K47" s="25"/>
+      <c r="K47" s="21"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -3237,22 +3270,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A18:A20"/>
@@ -3269,12 +3292,22 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="L25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3426,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -3459,39 +3492,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="25"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
       <c r="V1" s="14" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3519,7 +3552,7 @@
       <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="13"/>
       <c r="M2" s="2" t="s">
         <v>44</v>
@@ -3687,7 +3720,7 @@
       <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3711,7 +3744,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="13"/>
@@ -3737,7 +3770,7 @@
       <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3757,7 +3790,7 @@
         <v>190</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="25"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="13"/>
       <c r="M7" s="2" t="s">
         <v>13</v>
@@ -3774,18 +3807,18 @@
       <c r="Q7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="24">
         <v>190</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="26"/>
       <c r="V7" s="13">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="25"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +3840,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="25"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="13"/>
       <c r="M8" s="2" t="s">
         <v>14</v>
@@ -3831,7 +3864,7 @@
       <c r="V8" s="13"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3853,7 +3886,7 @@
         <v>290</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="21" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="13"/>
@@ -3872,16 +3905,16 @@
       <c r="Q9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="24">
         <v>290</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
       <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="6" t="s">
         <v>133</v>
       </c>
@@ -3903,7 +3936,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="25"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="13"/>
       <c r="M10" s="2" t="s">
         <v>99</v>
@@ -3927,7 +3960,7 @@
       <c r="V10" s="13"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -3949,7 +3982,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="25"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="13"/>
       <c r="M11" s="2" t="s">
         <v>46</v>
@@ -3973,7 +4006,7 @@
       <c r="V11" s="13"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3997,7 +4030,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="13"/>
@@ -4016,16 +4049,16 @@
       <c r="Q12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="24">
         <v>390</v>
       </c>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="24"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
       <c r="V12" s="13"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="25"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -4045,7 +4078,7 @@
         <v>390</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="25"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="13"/>
       <c r="M13" s="2" t="s">
         <v>47</v>
@@ -4069,7 +4102,7 @@
       <c r="V13" s="13"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="25"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
@@ -4091,7 +4124,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="25"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="13"/>
       <c r="M14" s="7" t="s">
         <v>48</v>
@@ -4115,7 +4148,7 @@
       <c r="V14" s="13"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4131,7 +4164,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="13"/>
@@ -4153,7 +4186,7 @@
       <c r="V15" s="13"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="25"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4163,7 +4196,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="25"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="13"/>
       <c r="M16" s="2" t="s">
         <v>53</v>
@@ -4179,7 +4212,7 @@
       <c r="V16" s="13"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="25"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4189,7 +4222,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="25"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="13"/>
       <c r="M17" s="2" t="s">
         <v>49</v>
@@ -4205,7 +4238,7 @@
       <c r="V17" s="13"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2"/>
@@ -4217,7 +4250,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="21" t="s">
         <v>50</v>
       </c>
       <c r="L18" s="13"/>
@@ -4230,16 +4263,16 @@
       <c r="Q18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="24">
         <v>590</v>
       </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="26"/>
       <c r="V18" s="13"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="25"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4249,7 +4282,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="25"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="13"/>
       <c r="M19" s="2" t="s">
         <v>52</v>
@@ -4260,16 +4293,16 @@
       <c r="Q19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="22">
+      <c r="R19" s="24">
         <v>590</v>
       </c>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="26"/>
       <c r="V19" s="13"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" s="25"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4279,7 +4312,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="25"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="13"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4293,7 +4326,7 @@
       <c r="V20" s="13"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4317,7 +4350,7 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="13"/>
@@ -4343,7 +4376,7 @@
       <c r="V21" s="13"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="25"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
@@ -4363,7 +4396,7 @@
         <v>690</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="25"/>
+      <c r="K22" s="21"/>
       <c r="L22" s="13"/>
       <c r="M22" s="2" t="s">
         <v>70</v>
@@ -4387,7 +4420,7 @@
       <c r="V22" s="13"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="25"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
@@ -4409,7 +4442,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="25"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="13"/>
       <c r="M23" s="2" t="s">
         <v>71</v>
@@ -4433,57 +4466,57 @@
       <c r="V23" s="13"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4511,7 +4544,7 @@
       <c r="J26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="11"/>
       <c r="M26" s="2" t="s">
         <v>44</v>
@@ -4663,7 +4696,7 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4687,7 +4720,7 @@
         <v>241</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="21" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="11"/>
@@ -4714,7 +4747,7 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
@@ -4734,7 +4767,7 @@
       <c r="J31" s="4">
         <v>190</v>
       </c>
-      <c r="K31" s="25"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="11"/>
       <c r="M31" s="8" t="s">
         <v>83</v>
@@ -4759,7 +4792,7 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
@@ -4781,7 +4814,7 @@
         <v>190</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="25"/>
+      <c r="K32" s="21"/>
       <c r="L32" s="11"/>
       <c r="M32" s="2" t="s">
         <v>86</v>
@@ -4804,7 +4837,7 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4826,7 +4859,7 @@
       <c r="J33" s="4">
         <v>290</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="21" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="11"/>
@@ -4853,7 +4886,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
@@ -4875,7 +4908,7 @@
         <v>371</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="25"/>
+      <c r="K34" s="21"/>
       <c r="L34" s="11"/>
       <c r="M34" s="2" t="s">
         <v>87</v>
@@ -4900,7 +4933,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -4922,7 +4955,7 @@
         <v>290</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="25"/>
+      <c r="K35" s="21"/>
       <c r="L35" s="11"/>
       <c r="M35" s="2" t="s">
         <v>88</v>
@@ -4945,7 +4978,7 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4967,7 +5000,7 @@
       <c r="J36" s="4">
         <v>390</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="11"/>
@@ -4994,7 +5027,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
@@ -5016,7 +5049,7 @@
         <v>371</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="25"/>
+      <c r="K37" s="21"/>
       <c r="L37" s="11"/>
       <c r="M37" s="2" t="s">
         <v>66</v>
@@ -5041,7 +5074,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -5063,7 +5096,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="25"/>
+      <c r="K38" s="21"/>
       <c r="L38" s="11"/>
       <c r="M38" s="2" t="s">
         <v>89</v>
@@ -5086,7 +5119,7 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
@@ -5098,7 +5131,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="25" t="s">
+      <c r="K39" s="21" t="s">
         <v>26</v>
       </c>
       <c r="L39" s="11"/>
@@ -5125,7 +5158,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -5139,7 +5172,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="25"/>
+      <c r="K40" s="21"/>
       <c r="L40" s="11"/>
       <c r="M40" s="6" t="s">
         <v>67</v>
@@ -5158,7 +5191,7 @@
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
@@ -5170,7 +5203,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="25"/>
+      <c r="K41" s="21"/>
       <c r="L41" s="11"/>
       <c r="M41" s="2" t="s">
         <v>90</v>
@@ -5193,7 +5226,7 @@
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2"/>
@@ -5205,7 +5238,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="25" t="s">
+      <c r="K42" s="21" t="s">
         <v>50</v>
       </c>
       <c r="L42" s="11"/>
@@ -5220,7 +5253,7 @@
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5230,7 +5263,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="25"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="11"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5243,7 +5276,7 @@
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5253,7 +5286,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="25"/>
+      <c r="K44" s="21"/>
       <c r="L44" s="11"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5266,7 +5299,7 @@
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5290,7 +5323,7 @@
         <v>891</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="25" t="s">
+      <c r="K45" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L45" s="11"/>
@@ -5305,7 +5338,7 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
@@ -5327,7 +5360,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="25"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="11"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5340,7 +5373,7 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="25"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -5360,7 +5393,7 @@
       <c r="J47" s="4">
         <v>690</v>
       </c>
-      <c r="K47" s="25"/>
+      <c r="K47" s="21"/>
       <c r="L47" s="11"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5374,18 +5407,25 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="R19:U19"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="A24:U24"/>
@@ -5393,25 +5433,18 @@
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="M25:U25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="K45:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5421,10 +5454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -5554,11 +5587,19 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="B10" s="15" t="s">
         <v>184</v>
       </c>
       <c r="S10" s="15">
         <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11" s="15" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5574,9 +5615,59 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D13:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="13" spans="4:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="F13" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="D15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
+++ b/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4140" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4590" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="技能大全" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="532">
   <si>
     <t>初始技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2204,6 +2204,30 @@
   </si>
   <si>
     <t>陨石表面2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意数量都是20经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁加行星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩体东区-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161兵工厂外部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161兵工厂内部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2766,7 +2790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2926,48 +2950,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2985,9 +2967,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3007,9 +2986,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3018,6 +2994,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3353,33 +3380,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="68"/>
+      <c r="B1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="53" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3407,7 +3434,7 @@
       <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="57"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3561,7 +3588,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3585,7 +3612,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="57" t="s">
+      <c r="K6" s="68" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -3609,7 +3636,7 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3629,7 +3656,7 @@
         <v>190</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="57"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3645,15 +3672,15 @@
       <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="71">
         <v>190</v>
       </c>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="56"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="73"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3675,7 +3702,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="57"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3697,7 +3724,7 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3719,7 +3746,7 @@
         <v>290</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="68" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -3737,15 +3764,15 @@
       <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="54">
+      <c r="Q9" s="71">
         <v>290</v>
       </c>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="56"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="6" t="s">
         <v>133</v>
       </c>
@@ -3767,7 +3794,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="57"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="2" t="s">
         <v>99</v>
       </c>
@@ -3789,7 +3816,7 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -3811,7 +3838,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="57"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="2" t="s">
         <v>46</v>
       </c>
@@ -3833,7 +3860,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3857,7 +3884,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3875,15 +3902,15 @@
       <c r="P12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="54">
+      <c r="Q12" s="71">
         <v>390</v>
       </c>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="73"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -3903,7 +3930,7 @@
         <v>390</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="57"/>
+      <c r="K13" s="68"/>
       <c r="L13" s="2" t="s">
         <v>47</v>
       </c>
@@ -3925,7 +3952,7 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
@@ -3947,7 +3974,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="68"/>
       <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
@@ -3969,7 +3996,7 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -3985,7 +4012,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="68" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -4005,7 +4032,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4015,7 +4042,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="57"/>
+      <c r="K16" s="68"/>
       <c r="L16" s="2" t="s">
         <v>53</v>
       </c>
@@ -4029,7 +4056,7 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4039,7 +4066,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="2" t="s">
         <v>49</v>
       </c>
@@ -4053,7 +4080,7 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2"/>
@@ -4065,7 +4092,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="68" t="s">
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -4077,15 +4104,15 @@
       <c r="P18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="54">
+      <c r="Q18" s="71">
         <v>590</v>
       </c>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="56"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="73"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4095,7 +4122,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="57"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="2" t="s">
         <v>52</v>
       </c>
@@ -4105,15 +4132,15 @@
       <c r="P19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="71">
         <v>590</v>
       </c>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="56"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="73"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4123,7 +4150,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4135,7 +4162,7 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4159,7 +4186,7 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -4183,7 +4210,7 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
@@ -4203,7 +4230,7 @@
         <v>690</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="57"/>
+      <c r="K22" s="68"/>
       <c r="L22" s="2" t="s">
         <v>70</v>
       </c>
@@ -4225,7 +4252,7 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
@@ -4247,7 +4274,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="57"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="2" t="s">
         <v>71</v>
       </c>
@@ -4269,55 +4296,55 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="53" t="s">
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4345,7 +4372,7 @@
       <c r="J26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="57"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4493,7 +4520,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4517,7 +4544,7 @@
         <v>241</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="57" t="s">
+      <c r="K30" s="68" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -4543,7 +4570,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
@@ -4563,7 +4590,7 @@
       <c r="J31" s="4">
         <v>190</v>
       </c>
-      <c r="K31" s="57"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="8" t="s">
         <v>83</v>
       </c>
@@ -4587,7 +4614,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
@@ -4609,7 +4636,7 @@
         <v>190</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="57"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="2" t="s">
         <v>86</v>
       </c>
@@ -4631,7 +4658,7 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4653,7 +4680,7 @@
       <c r="J33" s="4">
         <v>290</v>
       </c>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="68" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -4679,7 +4706,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
@@ -4701,7 +4728,7 @@
         <v>371</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="57"/>
+      <c r="K34" s="68"/>
       <c r="L34" s="2" t="s">
         <v>87</v>
       </c>
@@ -4725,7 +4752,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -4747,7 +4774,7 @@
         <v>290</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="57"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="2" t="s">
         <v>88</v>
       </c>
@@ -4769,7 +4796,7 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4791,7 +4818,7 @@
       <c r="J36" s="4">
         <v>390</v>
       </c>
-      <c r="K36" s="57" t="s">
+      <c r="K36" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -4817,7 +4844,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="57"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
@@ -4839,7 +4866,7 @@
         <v>371</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="57"/>
+      <c r="K37" s="68"/>
       <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4863,7 +4890,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -4885,7 +4912,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="57"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="2" t="s">
         <v>89</v>
       </c>
@@ -4907,7 +4934,7 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
@@ -4919,7 +4946,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="57" t="s">
+      <c r="K39" s="68" t="s">
         <v>26</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -4945,7 +4972,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4959,7 +4986,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="57"/>
+      <c r="K40" s="68"/>
       <c r="L40" s="6" t="s">
         <v>67</v>
       </c>
@@ -4977,7 +5004,7 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="57"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
@@ -4989,7 +5016,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="57"/>
+      <c r="K41" s="68"/>
       <c r="L41" s="2" t="s">
         <v>90</v>
       </c>
@@ -5011,7 +5038,7 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2"/>
@@ -5023,7 +5050,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="57" t="s">
+      <c r="K42" s="68" t="s">
         <v>50</v>
       </c>
       <c r="L42" s="2"/>
@@ -5037,7 +5064,7 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="57"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5047,7 +5074,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="57"/>
+      <c r="K43" s="68"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5059,7 +5086,7 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5069,7 +5096,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="57"/>
+      <c r="K44" s="68"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5081,7 +5108,7 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5105,7 +5132,7 @@
         <v>891</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="57" t="s">
+      <c r="K45" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L45" s="2"/>
@@ -5119,7 +5146,7 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
@@ -5141,7 +5168,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="57"/>
+      <c r="K46" s="68"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5153,7 +5180,7 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -5173,7 +5200,7 @@
       <c r="J47" s="4">
         <v>690</v>
       </c>
-      <c r="K47" s="57"/>
+      <c r="K47" s="68"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5186,22 +5213,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A18:A20"/>
@@ -5218,12 +5235,22 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="L25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5235,7 +5262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5432,34 +5459,34 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="57"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="42"/>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5487,7 +5514,7 @@
       <c r="J3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="43"/>
       <c r="M3" s="2" t="s">
         <v>44</v>
@@ -5664,7 +5691,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5688,7 +5715,7 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="68" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="43">
@@ -5718,7 +5745,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5738,7 +5765,7 @@
         <v>190</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="57"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="43">
         <v>19</v>
       </c>
@@ -5757,12 +5784,12 @@
       <c r="Q8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="54">
+      <c r="R8" s="71">
         <v>190</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="56"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="73"/>
       <c r="V8" s="43">
         <v>16</v>
       </c>
@@ -5771,7 +5798,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="57"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5793,7 +5820,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="57"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="43">
         <v>12</v>
       </c>
@@ -5821,7 +5848,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5843,7 +5870,7 @@
         <v>290</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="68" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="43">
@@ -5864,18 +5891,18 @@
       <c r="Q10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="54">
+      <c r="R10" s="71">
         <v>290</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="73"/>
       <c r="V10" s="43">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="6" t="s">
         <v>133</v>
       </c>
@@ -5897,7 +5924,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="57"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="43">
         <v>30</v>
       </c>
@@ -5925,7 +5952,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="2" t="s">
         <v>94</v>
       </c>
@@ -5947,7 +5974,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="57"/>
+      <c r="K12" s="68"/>
       <c r="L12" s="43">
         <v>26</v>
       </c>
@@ -5975,7 +6002,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -5999,7 +6026,7 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="57" t="s">
+      <c r="K13" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="43">
@@ -6020,18 +6047,18 @@
       <c r="Q13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="54">
+      <c r="R13" s="71">
         <v>390</v>
       </c>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="56"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="73"/>
       <c r="V13" s="43">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
@@ -6051,7 +6078,7 @@
         <v>390</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="57"/>
+      <c r="K14" s="68"/>
       <c r="L14" s="43">
         <v>46</v>
       </c>
@@ -6079,7 +6106,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="57"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
@@ -6101,7 +6128,7 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="57"/>
+      <c r="K15" s="68"/>
       <c r="L15" s="43">
         <v>42</v>
       </c>
@@ -6129,7 +6156,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6145,7 +6172,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="68" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="43">
@@ -6171,7 +6198,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6181,7 +6208,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="57"/>
+      <c r="K17" s="68"/>
       <c r="L17" s="43"/>
       <c r="M17" s="2" t="s">
         <v>395</v>
@@ -6199,7 +6226,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6209,7 +6236,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="43"/>
       <c r="M18" s="2" t="s">
         <v>49</v>
@@ -6227,7 +6254,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="2"/>
@@ -6239,7 +6266,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="57" t="s">
+      <c r="K19" s="68" t="s">
         <v>50</v>
       </c>
       <c r="L19" s="43"/>
@@ -6252,18 +6279,18 @@
       <c r="Q19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="54">
+      <c r="R19" s="71">
         <v>590</v>
       </c>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="56"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="73"/>
       <c r="V19" s="43">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6273,7 +6300,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="57"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="43"/>
       <c r="M20" s="2" t="s">
         <v>52</v>
@@ -6284,18 +6311,18 @@
       <c r="Q20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="54">
+      <c r="R20" s="71">
         <v>590</v>
       </c>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="56"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="73"/>
       <c r="V20" s="43">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6305,7 +6332,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="57"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="43"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -6319,7 +6346,7 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6343,7 +6370,7 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="57" t="s">
+      <c r="K22" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="43">
@@ -6373,7 +6400,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="57"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
@@ -6393,7 +6420,7 @@
         <v>690</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="57"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="43">
         <v>76</v>
       </c>
@@ -6421,7 +6448,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="57"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
@@ -6443,7 +6470,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="57"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="43">
         <v>72</v>
       </c>
@@ -6471,65 +6498,65 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
       <c r="V25" s="43"/>
       <c r="X25" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="58" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="57"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="53" t="s">
+      <c r="M26" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
       <c r="V26" s="43"/>
       <c r="X26" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6557,7 +6584,7 @@
       <c r="J27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="57"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="43"/>
       <c r="M27" s="2" t="s">
         <v>44</v>
@@ -6735,7 +6762,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="68" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6759,7 +6786,7 @@
         <v>241</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="57" t="s">
+      <c r="K31" s="68" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="43">
@@ -6795,7 +6822,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="6" t="s">
         <v>131</v>
       </c>
@@ -6815,7 +6842,7 @@
       <c r="J32" s="4">
         <v>190</v>
       </c>
-      <c r="K32" s="57"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="43">
         <v>14</v>
       </c>
@@ -6849,7 +6876,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="57"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
@@ -6871,7 +6898,7 @@
         <v>190</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="57"/>
+      <c r="K33" s="68"/>
       <c r="L33" s="43">
         <v>18</v>
       </c>
@@ -6903,7 +6930,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6925,7 +6952,7 @@
       <c r="J34" s="4">
         <v>290</v>
       </c>
-      <c r="K34" s="57" t="s">
+      <c r="K34" s="68" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="43">
@@ -6961,7 +6988,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
@@ -6983,7 +7010,7 @@
         <v>371</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="57"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="43">
         <v>28</v>
       </c>
@@ -7017,7 +7044,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="2" t="s">
         <v>105</v>
       </c>
@@ -7039,7 +7066,7 @@
         <v>290</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="57"/>
+      <c r="K36" s="68"/>
       <c r="L36" s="43">
         <v>27</v>
       </c>
@@ -7071,7 +7098,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -7093,7 +7120,7 @@
       <c r="J37" s="4">
         <v>390</v>
       </c>
-      <c r="K37" s="57" t="s">
+      <c r="K37" s="68" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="43">
@@ -7129,7 +7156,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
@@ -7151,7 +7178,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="57"/>
+      <c r="K38" s="68"/>
       <c r="L38" s="43">
         <v>39</v>
       </c>
@@ -7185,7 +7212,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
@@ -7207,7 +7234,7 @@
         <v>371</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="57"/>
+      <c r="K39" s="68"/>
       <c r="L39" s="43">
         <v>40</v>
       </c>
@@ -7239,7 +7266,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2"/>
@@ -7251,7 +7278,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="57" t="s">
+      <c r="K40" s="68" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="43"/>
@@ -7285,7 +7312,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A41" s="57"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
@@ -7299,7 +7326,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="57"/>
+      <c r="K41" s="68"/>
       <c r="L41" s="44">
         <v>57</v>
       </c>
@@ -7327,7 +7354,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="57"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
@@ -7339,7 +7366,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="57"/>
+      <c r="K42" s="68"/>
       <c r="L42" s="44">
         <v>56</v>
       </c>
@@ -7371,7 +7398,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="68" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="2"/>
@@ -7383,7 +7410,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="57" t="s">
+      <c r="K43" s="68" t="s">
         <v>50</v>
       </c>
       <c r="L43" s="44"/>
@@ -7403,7 +7430,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7413,7 +7440,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="57"/>
+      <c r="K44" s="68"/>
       <c r="L44" s="44"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7427,7 +7454,7 @@
       <c r="V44" s="43"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7437,7 +7464,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="57"/>
+      <c r="K45" s="68"/>
       <c r="L45" s="44"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7450,7 +7477,7 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="68" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7474,7 +7501,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="57" t="s">
+      <c r="K46" s="68" t="s">
         <v>68</v>
       </c>
       <c r="L46" s="44">
@@ -7491,7 +7518,7 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="2" t="s">
         <v>73</v>
       </c>
@@ -7513,7 +7540,7 @@
         <v>891</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="57"/>
+      <c r="K47" s="68"/>
       <c r="L47" s="44">
         <v>78</v>
       </c>
@@ -7528,7 +7555,7 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
@@ -7548,7 +7575,7 @@
       <c r="J48" s="4">
         <v>690</v>
       </c>
-      <c r="K48" s="57"/>
+      <c r="K48" s="68"/>
       <c r="L48" s="44">
         <v>82</v>
       </c>
@@ -7582,7 +7609,7 @@
       <c r="J50" s="4">
         <v>390</v>
       </c>
-      <c r="K50" s="57"/>
+      <c r="K50" s="68"/>
       <c r="L50" s="43">
         <v>20</v>
       </c>
@@ -7597,7 +7624,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="57"/>
+      <c r="K51" s="68"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
@@ -7612,7 +7639,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="57"/>
+      <c r="K52" s="68"/>
       <c r="L52" s="43">
         <v>49</v>
       </c>
@@ -8062,29 +8089,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="A25:U25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="K22:K24"/>
     <mergeCell ref="K50:K52"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:J2"/>
@@ -8101,6 +8105,29 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M26:U26"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="K46:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8113,7 +8140,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -8251,8 +8278,33 @@
         <v>38</v>
       </c>
     </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+    </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="74" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -8266,7 +8318,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="12" t="s">
         <v>136</v>
       </c>
@@ -8278,7 +8330,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="74" t="s">
         <v>162</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -8286,7 +8338,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>161</v>
       </c>
@@ -8367,35 +8419,35 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J18" s="78">
+      <c r="J18" s="63">
         <v>192</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J19" s="78">
+      <c r="J19" s="63">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J20" s="77">
+      <c r="J20" s="62">
         <v>208</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="62">
         <v>208</v>
       </c>
-      <c r="O20" s="77"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J21" s="77">
+      <c r="J21" s="62">
         <v>228</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="62">
         <v>228</v>
       </c>
-      <c r="O21" s="77"/>
+      <c r="O21" s="62"/>
       <c r="P21" s="12">
         <v>58</v>
       </c>
@@ -8415,8 +8467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8492,7 +8544,19 @@
       <c r="F25" t="s">
         <v>263</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="67" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G26" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="G27" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="35" spans="3:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="G35" s="50" t="s">
@@ -8570,10 +8634,10 @@
       <c r="D49" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="F49" s="61"/>
+      <c r="F49" s="79"/>
       <c r="G49" s="28" t="s">
         <v>314</v>
       </c>
@@ -8645,7 +8709,7 @@
       <c r="C73" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="81" t="s">
         <v>309</v>
       </c>
       <c r="E73" s="32"/>
@@ -8657,7 +8721,7 @@
       <c r="C74" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="60"/>
+      <c r="D74" s="78"/>
       <c r="E74" s="34" t="s">
         <v>320</v>
       </c>
@@ -8682,8 +8746,8 @@
       <c r="E76" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="77"/>
     </row>
     <row r="77" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C77" s="25" t="s">
@@ -8724,14 +8788,14 @@
       </c>
       <c r="J79" s="29"/>
     </row>
-    <row r="80" spans="2:10" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F80" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="G80" s="68" t="s">
+      <c r="G80" s="54" t="s">
         <v>489</v>
       </c>
-      <c r="H80" s="67" t="s">
+      <c r="H80" s="53" t="s">
         <v>515</v>
       </c>
       <c r="I80" s="9" t="s">
@@ -8758,13 +8822,13 @@
       <c r="C85" t="s">
         <v>479</v>
       </c>
-      <c r="J85" s="83"/>
+      <c r="J85" s="75"/>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F86" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="J86" s="83"/>
+      <c r="J86" s="75"/>
     </row>
     <row r="87" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D87" s="46"/>
@@ -8778,7 +8842,7 @@
       <c r="D88" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F88" s="66" t="s">
+      <c r="F88" s="83" t="s">
         <v>480</v>
       </c>
       <c r="G88" s="29"/>
@@ -8788,14 +8852,14 @@
       <c r="E89" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="F89" s="66"/>
+      <c r="F89" s="83"/>
       <c r="G89" s="29"/>
     </row>
     <row r="90" spans="3:15" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="65" t="s">
+      <c r="D90" s="82" t="s">
         <v>483</v>
       </c>
-      <c r="E90" s="60"/>
+      <c r="E90" s="78"/>
       <c r="F90" s="9" t="s">
         <v>481</v>
       </c>
@@ -8804,7 +8868,7 @@
     <row r="91" spans="3:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F91" s="20"/>
       <c r="K91" s="22"/>
-      <c r="L91" s="80" t="s">
+      <c r="L91" s="76" t="s">
         <v>502</v>
       </c>
       <c r="M91" s="20" t="s">
@@ -8824,18 +8888,18 @@
       <c r="K92" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="L92" s="63"/>
-      <c r="M92" s="79" t="s">
+      <c r="L92" s="77"/>
+      <c r="M92" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="N92" s="82" t="s">
+      <c r="N92" s="66" t="s">
         <v>513</v>
       </c>
       <c r="O92" s="29"/>
     </row>
     <row r="93" spans="3:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="K93" s="39"/>
-      <c r="L93" s="81" t="s">
+      <c r="L93" s="65" t="s">
         <v>510</v>
       </c>
       <c r="M93" s="25"/>
@@ -8892,7 +8956,7 @@
   <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -8900,7 +8964,8 @@
     <col min="1" max="1" width="9" style="16"/>
     <col min="2" max="2" width="12.5" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="16"/>
+    <col min="4" max="4" width="9" style="16"/>
+    <col min="5" max="5" width="27.5" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="16" customWidth="1"/>
     <col min="7" max="16384" width="9" style="16"/>
   </cols>
@@ -8926,6 +8991,9 @@
       <c r="C2" s="17" t="s">
         <v>228</v>
       </c>
+      <c r="E2" s="16" t="s">
+        <v>526</v>
+      </c>
       <c r="F2" s="16">
         <v>1</v>
       </c>
@@ -8953,9 +9021,6 @@
       </c>
       <c r="C4" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>340</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>343</v>
@@ -9080,1050 +9145,1050 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.125" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="69"/>
+    <col min="1" max="1" width="23.125" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.125" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.75" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.875" style="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="76" customFormat="1" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:12" s="61" customFormat="1" ht="35.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="K1" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="J2" s="69" t="s">
+      <c r="G2" s="56"/>
+      <c r="J2" s="55" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="55">
         <v>0</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="55" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="H4" s="69">
+      <c r="H4" s="55">
         <v>0</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="55" t="s">
         <v>369</v>
       </c>
-      <c r="K4" s="71"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="H5" s="69">
+      <c r="H5" s="55">
         <v>0</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="55" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="55" t="s">
         <v>374</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="55">
         <v>0</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="55" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="55">
         <v>0</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="55" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G8" s="70"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="F10" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="55" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="55">
         <v>0</v>
       </c>
-      <c r="J12" s="72" t="s">
+      <c r="J12" s="58" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="163.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="C13" s="69" t="s">
+      <c r="A13" s="84"/>
+      <c r="C13" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="55">
         <v>0</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="D14" s="69" t="s">
+      <c r="A14" s="84"/>
+      <c r="D14" s="55" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H14" s="69">
+      <c r="H14" s="55">
         <v>0</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
-      <c r="G15" s="70" t="s">
+      <c r="A15" s="84"/>
+      <c r="G15" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
-      <c r="D16" s="69" t="s">
+      <c r="A16" s="84"/>
+      <c r="D16" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="D17" s="69" t="s">
+      <c r="A17" s="84"/>
+      <c r="D17" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="G17" s="70" t="s">
+      <c r="G17" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="84"/>
+      <c r="B18" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="G18" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="G19" s="70" t="s">
+      <c r="A19" s="84"/>
+      <c r="G19" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73" t="s">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="G20" s="69" t="s">
+      <c r="G20" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="69">
+      <c r="H20" s="55">
         <v>0</v>
       </c>
-      <c r="I20" s="69" t="s">
+      <c r="I20" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="58" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="69" t="s">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="69" t="s">
+      <c r="G21" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="69" t="s">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
-      <c r="B23" s="73" t="s">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="58" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="69" t="s">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="69" t="s">
+      <c r="G24" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="I24" s="69" t="s">
+      <c r="I24" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="J24" s="69" t="s">
+      <c r="J24" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="E25" s="69" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="E25" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="69" t="s">
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="69" t="s">
+      <c r="G26" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="69" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="G27" s="69" t="s">
+      <c r="G27" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="58" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="84"/>
+      <c r="B28" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="72" t="s">
+      <c r="J28" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="69" t="s">
+      <c r="G29" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="55" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="69" t="s">
+      <c r="A31" s="84"/>
+      <c r="B31" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="G31" s="69" t="s">
+      <c r="G31" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="58" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
-      <c r="G32" s="69" t="s">
+      <c r="A32" s="84"/>
+      <c r="G32" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
-      <c r="G33" s="69" t="s">
+      <c r="A33" s="84"/>
+      <c r="G33" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
-      <c r="G34" s="69" t="s">
+      <c r="A34" s="84"/>
+      <c r="G34" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="73" t="s">
+      <c r="A35" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="69" t="s">
+      <c r="G35" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
-      <c r="C36" s="69" t="s">
+      <c r="A36" s="84"/>
+      <c r="C36" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="69" t="s">
+      <c r="G36" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="G37" s="69" t="s">
+      <c r="A37" s="84"/>
+      <c r="G37" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="69" t="s">
+      <c r="E38" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="69" t="s">
+      <c r="F38" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="G38" s="69" t="s">
+      <c r="G38" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="72" t="s">
+      <c r="J38" s="58" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="D39" s="69" t="s">
+      <c r="A39" s="84"/>
+      <c r="D39" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="55">
         <v>0</v>
       </c>
-      <c r="K39" s="71" t="s">
+      <c r="K39" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="55" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
-      <c r="B41" s="69" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
-      <c r="D42" s="69" t="s">
+      <c r="A42" s="84"/>
+      <c r="D42" s="55" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="B43" s="69" t="s">
+      <c r="B43" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="E43" s="69" t="s">
+      <c r="E43" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F43" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="G43" s="69" t="s">
+      <c r="G43" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="55">
         <v>2000</v>
       </c>
-      <c r="I43" s="69" t="s">
+      <c r="I43" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="58" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J44" s="72"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="G45" s="69" t="s">
+      <c r="G45" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="F46" s="69" t="s">
+      <c r="F46" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="G46" s="69" t="s">
+      <c r="G46" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="J46" s="69" t="s">
+      <c r="J46" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="K46" s="74" t="s">
+      <c r="K46" s="59" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="G47" s="69" t="s">
+      <c r="G47" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="K47" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="G48" s="69" t="s">
+      <c r="G48" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="J48" s="69" t="s">
+      <c r="J48" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="K48" s="71" t="s">
+      <c r="K48" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="E49" s="69" t="s">
+      <c r="E49" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="G49" s="69" t="s">
+      <c r="G49" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="J49" s="72" t="s">
+      <c r="J49" s="58" t="s">
         <v>334</v>
       </c>
-      <c r="K49" s="71" t="s">
+      <c r="K49" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="55" t="s">
         <v>456</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="F50" s="69" t="s">
+      <c r="F50" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="G50" s="69" t="s">
+      <c r="G50" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="J50" s="72" t="s">
+      <c r="J50" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="K50" s="74" t="s">
+      <c r="K50" s="59" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="F51" s="69" t="s">
+      <c r="F51" s="55" t="s">
         <v>461</v>
       </c>
-      <c r="G51" s="69" t="s">
+      <c r="G51" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="K51" s="71" t="s">
+      <c r="K51" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="109.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="J52" s="72" t="s">
+      <c r="J52" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="K52" s="74" t="s">
+      <c r="K52" s="59" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="69" t="s">
+      <c r="E53" s="55" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="D55" s="69" t="s">
+      <c r="D55" s="55" t="s">
         <v>476</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="G55" s="69" t="s">
+      <c r="G55" s="55" t="s">
         <v>478</v>
       </c>
-      <c r="H55" s="69">
+      <c r="H55" s="55">
         <v>3000</v>
       </c>
-      <c r="I55" s="69" t="s">
+      <c r="I55" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="58" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="55" t="s">
         <v>491</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="K56" s="71" t="s">
+      <c r="K56" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K57" s="71" t="s">
+      <c r="K57" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="K58" s="71" t="s">
+      <c r="K58" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="J59" s="72" t="s">
+      <c r="J59" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="K59" s="71" t="s">
+      <c r="K59" s="57" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="J60" s="69" t="s">
+      <c r="J60" s="55" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D61" s="69" t="s">
+      <c r="D61" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="F61" s="69" t="s">
+      <c r="F61" s="55" t="s">
         <v>511</v>
       </c>
-      <c r="J61" s="72" t="s">
+      <c r="J61" s="58" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="55" t="s">
         <v>508</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F62" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="J62" s="69" t="s">
+      <c r="J62" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="K62" s="72" t="s">
+      <c r="K62" s="58" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D63" s="69" t="s">
+      <c r="D63" s="55" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="D64" s="69" t="s">
+      <c r="D64" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="F64" s="69" t="s">
+      <c r="F64" s="55" t="s">
         <v>520</v>
       </c>
     </row>

--- a/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
+++ b/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4590" windowWidth="19200" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="技能大全" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="538">
   <si>
     <t>初始技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2230,12 +2230,40 @@
     <t>161兵工厂内部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>千年海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧皮盾1个
+经验2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼尾斧
+勋章80
+金钱6000
+经验3600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异变者布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找风暴号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss老布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2431,6 +2459,19 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2790,7 +2831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2995,13 +3036,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3011,6 +3049,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3044,6 +3088,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3380,19 +3427,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="68"/>
-      <c r="B1" s="70" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="68"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="73"/>
       <c r="L1" s="69" t="s">
         <v>41</v>
       </c>
@@ -3406,7 +3453,7 @@
       <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="68"/>
+      <c r="A2" s="73"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3434,7 +3481,7 @@
       <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="68"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3588,7 +3635,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3612,7 +3659,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="68" t="s">
+      <c r="K6" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -3636,7 +3683,7 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3656,7 +3703,7 @@
         <v>190</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="68"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3672,15 +3719,15 @@
       <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="70">
         <v>190</v>
       </c>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="73"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="72"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3702,7 +3749,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="68"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3724,7 +3771,7 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3746,7 +3793,7 @@
         <v>290</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -3764,15 +3811,15 @@
       <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="71">
+      <c r="Q9" s="70">
         <v>290</v>
       </c>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="73"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="6" t="s">
         <v>133</v>
       </c>
@@ -3794,7 +3841,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="68"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="2" t="s">
         <v>99</v>
       </c>
@@ -3816,7 +3863,7 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -3838,7 +3885,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="2" t="s">
         <v>46</v>
       </c>
@@ -3860,7 +3907,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3884,7 +3931,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="68" t="s">
+      <c r="K12" s="73" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3902,15 +3949,15 @@
       <c r="P12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="70">
         <v>390</v>
       </c>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="73"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="72"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -3930,7 +3977,7 @@
         <v>390</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="68"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="2" t="s">
         <v>47</v>
       </c>
@@ -3952,7 +3999,7 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
@@ -3974,7 +4021,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="68"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
@@ -3996,7 +4043,7 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4012,7 +4059,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -4032,7 +4079,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4042,7 +4089,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="2" t="s">
         <v>53</v>
       </c>
@@ -4056,7 +4103,7 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4066,7 +4113,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="68"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="2" t="s">
         <v>49</v>
       </c>
@@ -4080,7 +4127,7 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2"/>
@@ -4092,7 +4139,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="68" t="s">
+      <c r="K18" s="73" t="s">
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -4104,15 +4151,15 @@
       <c r="P18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="71">
+      <c r="Q18" s="70">
         <v>590</v>
       </c>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="73"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="72"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4122,7 +4169,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="68"/>
+      <c r="K19" s="73"/>
       <c r="L19" s="2" t="s">
         <v>52</v>
       </c>
@@ -4132,15 +4179,15 @@
       <c r="P19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="70">
         <v>590</v>
       </c>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="73"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="72"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4150,7 +4197,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="68"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4162,7 +4209,7 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4186,7 +4233,7 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="68" t="s">
+      <c r="K21" s="73" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -4210,7 +4257,7 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
+      <c r="A22" s="73"/>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
@@ -4230,7 +4277,7 @@
         <v>690</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="68"/>
+      <c r="K22" s="73"/>
       <c r="L22" s="2" t="s">
         <v>70</v>
       </c>
@@ -4252,7 +4299,7 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" s="68"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
@@ -4274,7 +4321,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="68"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="2" t="s">
         <v>71</v>
       </c>
@@ -4296,41 +4343,41 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="70" t="s">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="68"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="69" t="s">
         <v>43</v>
       </c>
@@ -4344,7 +4391,7 @@
       <c r="T25" s="69"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
+      <c r="A26" s="73"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4372,7 +4419,7 @@
       <c r="J26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="68"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4520,7 +4567,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4544,7 +4591,7 @@
         <v>241</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -4570,7 +4617,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="68"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
@@ -4590,7 +4637,7 @@
       <c r="J31" s="4">
         <v>190</v>
       </c>
-      <c r="K31" s="68"/>
+      <c r="K31" s="73"/>
       <c r="L31" s="8" t="s">
         <v>83</v>
       </c>
@@ -4614,7 +4661,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
@@ -4636,7 +4683,7 @@
         <v>190</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="68"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="2" t="s">
         <v>86</v>
       </c>
@@ -4658,7 +4705,7 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4680,7 +4727,7 @@
       <c r="J33" s="4">
         <v>290</v>
       </c>
-      <c r="K33" s="68" t="s">
+      <c r="K33" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -4706,7 +4753,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
@@ -4728,7 +4775,7 @@
         <v>371</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="68"/>
+      <c r="K34" s="73"/>
       <c r="L34" s="2" t="s">
         <v>87</v>
       </c>
@@ -4752,7 +4799,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" s="68"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -4774,7 +4821,7 @@
         <v>290</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="68"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="2" t="s">
         <v>88</v>
       </c>
@@ -4796,7 +4843,7 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4818,7 +4865,7 @@
       <c r="J36" s="4">
         <v>390</v>
       </c>
-      <c r="K36" s="68" t="s">
+      <c r="K36" s="73" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -4844,7 +4891,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="68"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
@@ -4866,7 +4913,7 @@
         <v>371</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="68"/>
+      <c r="K37" s="73"/>
       <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4890,7 +4937,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -4912,7 +4959,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="68"/>
+      <c r="K38" s="73"/>
       <c r="L38" s="2" t="s">
         <v>89</v>
       </c>
@@ -4934,7 +4981,7 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
@@ -4946,7 +4993,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="68" t="s">
+      <c r="K39" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -4972,7 +5019,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
+      <c r="A40" s="73"/>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4986,7 +5033,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="68"/>
+      <c r="K40" s="73"/>
       <c r="L40" s="6" t="s">
         <v>67</v>
       </c>
@@ -5004,7 +5051,7 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="68"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
@@ -5016,7 +5063,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="68"/>
+      <c r="K41" s="73"/>
       <c r="L41" s="2" t="s">
         <v>90</v>
       </c>
@@ -5038,7 +5085,7 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2"/>
@@ -5050,7 +5097,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="68" t="s">
+      <c r="K42" s="73" t="s">
         <v>50</v>
       </c>
       <c r="L42" s="2"/>
@@ -5064,7 +5111,7 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="68"/>
+      <c r="A43" s="73"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5074,7 +5121,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="68"/>
+      <c r="K43" s="73"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5086,7 +5133,7 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5096,7 +5143,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="68"/>
+      <c r="K44" s="73"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5108,7 +5155,7 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5132,7 +5179,7 @@
         <v>891</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="68" t="s">
+      <c r="K45" s="73" t="s">
         <v>68</v>
       </c>
       <c r="L45" s="2"/>
@@ -5146,7 +5193,7 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
@@ -5168,7 +5215,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="68"/>
+      <c r="K46" s="73"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5180,7 +5227,7 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="68"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -5200,7 +5247,7 @@
       <c r="J47" s="4">
         <v>690</v>
       </c>
-      <c r="K47" s="68"/>
+      <c r="K47" s="73"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5213,12 +5260,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A18:A20"/>
@@ -5235,22 +5292,12 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q18:T18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5418,9 +5465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5459,19 +5506,19 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="68"/>
-      <c r="B2" s="70" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="73"/>
       <c r="L2" s="42"/>
       <c r="M2" s="69" t="s">
         <v>41</v>
@@ -5486,7 +5533,7 @@
       <c r="U2" s="69"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5514,7 +5561,7 @@
       <c r="J3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="73"/>
       <c r="L3" s="43"/>
       <c r="M3" s="2" t="s">
         <v>44</v>
@@ -5691,7 +5738,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5715,7 +5762,7 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="68" t="s">
+      <c r="K7" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="43">
@@ -5745,7 +5792,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5765,7 +5812,7 @@
         <v>190</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="68"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="43">
         <v>19</v>
       </c>
@@ -5784,12 +5831,12 @@
       <c r="Q8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="71">
+      <c r="R8" s="70">
         <v>190</v>
       </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="73"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="43">
         <v>16</v>
       </c>
@@ -5798,7 +5845,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5820,7 +5867,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="68"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="43">
         <v>12</v>
       </c>
@@ -5848,7 +5895,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5870,7 +5917,7 @@
         <v>290</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="43">
@@ -5891,18 +5938,18 @@
       <c r="Q10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="71">
+      <c r="R10" s="70">
         <v>290</v>
       </c>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="73"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="72"/>
       <c r="V10" s="43">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
+      <c r="A11" s="73"/>
       <c r="B11" s="6" t="s">
         <v>133</v>
       </c>
@@ -5924,7 +5971,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="43">
         <v>30</v>
       </c>
@@ -5952,7 +5999,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="2" t="s">
         <v>94</v>
       </c>
@@ -5974,7 +6021,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="68"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="43">
         <v>26</v>
       </c>
@@ -6002,7 +6049,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6026,7 +6073,7 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="73" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="43">
@@ -6047,18 +6094,18 @@
       <c r="Q13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="71">
+      <c r="R13" s="70">
         <v>390</v>
       </c>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="73"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="43">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
@@ -6078,7 +6125,7 @@
         <v>390</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="68"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="43">
         <v>46</v>
       </c>
@@ -6106,7 +6153,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
@@ -6128,7 +6175,7 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="68"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="43">
         <v>42</v>
       </c>
@@ -6156,7 +6203,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6172,7 +6219,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="68" t="s">
+      <c r="K16" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="43">
@@ -6198,7 +6245,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
+      <c r="A17" s="73"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6208,7 +6255,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="68"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="43"/>
       <c r="M17" s="2" t="s">
         <v>395</v>
@@ -6226,7 +6273,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6236,7 +6283,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="68"/>
+      <c r="K18" s="73"/>
       <c r="L18" s="43"/>
       <c r="M18" s="2" t="s">
         <v>49</v>
@@ -6254,7 +6301,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="2"/>
@@ -6266,7 +6313,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="68" t="s">
+      <c r="K19" s="73" t="s">
         <v>50</v>
       </c>
       <c r="L19" s="43"/>
@@ -6279,18 +6326,18 @@
       <c r="Q19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="71">
+      <c r="R19" s="70">
         <v>590</v>
       </c>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="73"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="72"/>
       <c r="V19" s="43">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6300,7 +6347,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="68"/>
+      <c r="K20" s="73"/>
       <c r="L20" s="43"/>
       <c r="M20" s="2" t="s">
         <v>52</v>
@@ -6311,18 +6358,18 @@
       <c r="Q20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="71">
+      <c r="R20" s="70">
         <v>590</v>
       </c>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="73"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="72"/>
       <c r="V20" s="43">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
+      <c r="A21" s="73"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6332,7 +6379,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="68"/>
+      <c r="K21" s="73"/>
       <c r="L21" s="43"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -6346,7 +6393,7 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6370,7 +6417,7 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="68" t="s">
+      <c r="K22" s="73" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="43">
@@ -6400,7 +6447,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="68"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
@@ -6420,7 +6467,7 @@
         <v>690</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="68"/>
+      <c r="K23" s="73"/>
       <c r="L23" s="43">
         <v>76</v>
       </c>
@@ -6448,7 +6495,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
@@ -6470,7 +6517,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="68"/>
+      <c r="K24" s="73"/>
       <c r="L24" s="43">
         <v>72</v>
       </c>
@@ -6498,46 +6545,46 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="68"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
       <c r="V25" s="43"/>
       <c r="X25" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="70" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="68"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="43"/>
       <c r="M26" s="69" t="s">
         <v>43</v>
@@ -6556,7 +6603,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6584,7 +6631,7 @@
       <c r="J27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="68"/>
+      <c r="K27" s="73"/>
       <c r="L27" s="43"/>
       <c r="M27" s="2" t="s">
         <v>44</v>
@@ -6762,7 +6809,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6786,7 +6833,7 @@
         <v>241</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="68" t="s">
+      <c r="K31" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="43">
@@ -6822,7 +6869,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
+      <c r="A32" s="73"/>
       <c r="B32" s="6" t="s">
         <v>131</v>
       </c>
@@ -6842,7 +6889,7 @@
       <c r="J32" s="4">
         <v>190</v>
       </c>
-      <c r="K32" s="68"/>
+      <c r="K32" s="73"/>
       <c r="L32" s="43">
         <v>14</v>
       </c>
@@ -6876,7 +6923,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
@@ -6898,7 +6945,7 @@
         <v>190</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="68"/>
+      <c r="K33" s="73"/>
       <c r="L33" s="43">
         <v>18</v>
       </c>
@@ -6930,7 +6977,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6952,7 +6999,7 @@
       <c r="J34" s="4">
         <v>290</v>
       </c>
-      <c r="K34" s="68" t="s">
+      <c r="K34" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="43">
@@ -6988,7 +7035,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="68"/>
+      <c r="A35" s="73"/>
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
@@ -7010,7 +7057,7 @@
         <v>371</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="68"/>
+      <c r="K35" s="73"/>
       <c r="L35" s="43">
         <v>28</v>
       </c>
@@ -7044,7 +7091,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="2" t="s">
         <v>105</v>
       </c>
@@ -7066,7 +7113,7 @@
         <v>290</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="68"/>
+      <c r="K36" s="73"/>
       <c r="L36" s="43">
         <v>27</v>
       </c>
@@ -7098,7 +7145,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -7120,7 +7167,7 @@
       <c r="J37" s="4">
         <v>390</v>
       </c>
-      <c r="K37" s="68" t="s">
+      <c r="K37" s="73" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="43">
@@ -7156,7 +7203,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
+      <c r="A38" s="73"/>
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
@@ -7178,7 +7225,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="68"/>
+      <c r="K38" s="73"/>
       <c r="L38" s="43">
         <v>39</v>
       </c>
@@ -7212,7 +7259,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="68"/>
+      <c r="A39" s="73"/>
       <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
@@ -7234,7 +7281,7 @@
         <v>371</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="68"/>
+      <c r="K39" s="73"/>
       <c r="L39" s="43">
         <v>40</v>
       </c>
@@ -7266,7 +7313,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="73" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2"/>
@@ -7278,7 +7325,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="68" t="s">
+      <c r="K40" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="43"/>
@@ -7312,7 +7359,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A41" s="68"/>
+      <c r="A41" s="73"/>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
@@ -7326,7 +7373,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="68"/>
+      <c r="K41" s="73"/>
       <c r="L41" s="44">
         <v>57</v>
       </c>
@@ -7354,7 +7401,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="68"/>
+      <c r="A42" s="73"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
@@ -7366,7 +7413,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="68"/>
+      <c r="K42" s="73"/>
       <c r="L42" s="44">
         <v>56</v>
       </c>
@@ -7398,7 +7445,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="2"/>
@@ -7410,7 +7457,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="68" t="s">
+      <c r="K43" s="73" t="s">
         <v>50</v>
       </c>
       <c r="L43" s="44"/>
@@ -7430,7 +7477,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
+      <c r="A44" s="73"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7440,7 +7487,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="68"/>
+      <c r="K44" s="73"/>
       <c r="L44" s="44"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7454,7 +7501,7 @@
       <c r="V44" s="43"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="68"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7464,7 +7511,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="68"/>
+      <c r="K45" s="73"/>
       <c r="L45" s="44"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7477,7 +7524,7 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="73" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7501,7 +7548,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="68" t="s">
+      <c r="K46" s="73" t="s">
         <v>68</v>
       </c>
       <c r="L46" s="44">
@@ -7518,7 +7565,7 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="68"/>
+      <c r="A47" s="73"/>
       <c r="B47" s="2" t="s">
         <v>73</v>
       </c>
@@ -7540,7 +7587,7 @@
         <v>891</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="68"/>
+      <c r="K47" s="73"/>
       <c r="L47" s="44">
         <v>78</v>
       </c>
@@ -7555,7 +7602,7 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
@@ -7575,7 +7622,7 @@
       <c r="J48" s="4">
         <v>690</v>
       </c>
-      <c r="K48" s="68"/>
+      <c r="K48" s="73"/>
       <c r="L48" s="44">
         <v>82</v>
       </c>
@@ -7609,7 +7656,7 @@
       <c r="J50" s="4">
         <v>390</v>
       </c>
-      <c r="K50" s="68"/>
+      <c r="K50" s="73"/>
       <c r="L50" s="43">
         <v>20</v>
       </c>
@@ -7624,7 +7671,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="68"/>
+      <c r="K51" s="73"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
@@ -7639,7 +7686,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="68"/>
+      <c r="K52" s="73"/>
       <c r="L52" s="43">
         <v>49</v>
       </c>
@@ -8089,6 +8136,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M26:U26"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="K22:K24"/>
     <mergeCell ref="K50:K52"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:J2"/>
@@ -8105,29 +8175,6 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="K16:K18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="A25:U25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="K46:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8304,7 +8351,7 @@
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -8318,7 +8365,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="12" t="s">
         <v>136</v>
       </c>
@@ -8330,7 +8377,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>162</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -8338,7 +8385,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="12" t="s">
         <v>161</v>
       </c>
@@ -8467,7 +8514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B13:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B22" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -8634,10 +8681,10 @@
       <c r="D49" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E49" s="78" t="s">
+      <c r="E49" s="79" t="s">
         <v>325</v>
       </c>
-      <c r="F49" s="79"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="28" t="s">
         <v>314</v>
       </c>
@@ -8709,7 +8756,7 @@
       <c r="C73" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="81" t="s">
+      <c r="D73" s="82" t="s">
         <v>309</v>
       </c>
       <c r="E73" s="32"/>
@@ -8721,7 +8768,7 @@
       <c r="C74" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="78"/>
+      <c r="D74" s="79"/>
       <c r="E74" s="34" t="s">
         <v>320</v>
       </c>
@@ -8746,8 +8793,8 @@
       <c r="E76" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F76" s="80"/>
-      <c r="G76" s="77"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="78"/>
     </row>
     <row r="77" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C77" s="25" t="s">
@@ -8822,13 +8869,13 @@
       <c r="C85" t="s">
         <v>479</v>
       </c>
-      <c r="J85" s="75"/>
+      <c r="J85" s="76"/>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F86" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="J86" s="75"/>
+      <c r="J86" s="76"/>
     </row>
     <row r="87" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D87" s="46"/>
@@ -8842,7 +8889,7 @@
       <c r="D88" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F88" s="83" t="s">
+      <c r="F88" s="84" t="s">
         <v>480</v>
       </c>
       <c r="G88" s="29"/>
@@ -8852,14 +8899,14 @@
       <c r="E89" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="F89" s="83"/>
+      <c r="F89" s="84"/>
       <c r="G89" s="29"/>
     </row>
     <row r="90" spans="3:15" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="82" t="s">
+      <c r="D90" s="83" t="s">
         <v>483</v>
       </c>
-      <c r="E90" s="78"/>
+      <c r="E90" s="79"/>
       <c r="F90" s="9" t="s">
         <v>481</v>
       </c>
@@ -8868,7 +8915,7 @@
     <row r="91" spans="3:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F91" s="20"/>
       <c r="K91" s="22"/>
-      <c r="L91" s="76" t="s">
+      <c r="L91" s="77" t="s">
         <v>502</v>
       </c>
       <c r="M91" s="20" t="s">
@@ -8888,7 +8935,7 @@
       <c r="K92" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="L92" s="77"/>
+      <c r="L92" s="78"/>
       <c r="M92" s="64" t="s">
         <v>503</v>
       </c>
@@ -9134,13 +9181,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.15"/>
@@ -9393,7 +9440,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="85" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -9416,7 +9463,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="163.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
+      <c r="A13" s="85"/>
       <c r="C13" s="55" t="s">
         <v>265</v>
       </c>
@@ -9440,7 +9487,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="D14" s="55" t="s">
         <v>264</v>
       </c>
@@ -9455,7 +9502,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
+      <c r="A15" s="85"/>
       <c r="G15" s="56" t="s">
         <v>251</v>
       </c>
@@ -9464,7 +9511,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
+      <c r="A16" s="85"/>
       <c r="D16" s="55" t="s">
         <v>248</v>
       </c>
@@ -9476,7 +9523,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
+      <c r="A17" s="85"/>
       <c r="D17" s="55" t="s">
         <v>250</v>
       </c>
@@ -9494,7 +9541,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="55" t="s">
         <v>256</v>
       </c>
@@ -9518,7 +9565,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="G19" s="56" t="s">
         <v>251</v>
       </c>
@@ -9527,8 +9574,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85" t="s">
         <v>150</v>
       </c>
       <c r="C20" s="55" t="s">
@@ -9554,8 +9601,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="55" t="s">
         <v>147</v>
       </c>
@@ -9564,8 +9611,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="55" t="s">
         <v>148</v>
       </c>
@@ -9583,8 +9630,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -9604,8 +9651,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="55" t="s">
         <v>138</v>
       </c>
@@ -9629,8 +9676,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
       <c r="E25" s="55" t="s">
         <v>239</v>
       </c>
@@ -9642,8 +9689,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="55" t="s">
         <v>208</v>
       </c>
@@ -9661,8 +9708,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="55" t="s">
         <v>145</v>
       </c>
@@ -9683,7 +9730,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" s="84"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="55" t="s">
         <v>204</v>
       </c>
@@ -9707,7 +9754,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="55" t="s">
         <v>167</v>
       </c>
@@ -9728,7 +9775,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="84"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="55" t="s">
         <v>168</v>
       </c>
@@ -9746,7 +9793,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
+      <c r="A31" s="85"/>
       <c r="B31" s="55" t="s">
         <v>186</v>
       </c>
@@ -9764,25 +9811,25 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="84"/>
+      <c r="A32" s="85"/>
       <c r="G32" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
+      <c r="A33" s="85"/>
       <c r="G33" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="84"/>
+      <c r="A34" s="85"/>
       <c r="G34" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="85" t="s">
         <v>219</v>
       </c>
       <c r="B35" s="55" t="s">
@@ -9805,7 +9852,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="84"/>
+      <c r="A36" s="85"/>
       <c r="C36" s="55" t="s">
         <v>214</v>
       </c>
@@ -9823,13 +9870,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="84"/>
+      <c r="A37" s="85"/>
       <c r="G37" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
+      <c r="A38" s="85"/>
       <c r="B38" s="55" t="s">
         <v>215</v>
       </c>
@@ -9853,7 +9900,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
+      <c r="A39" s="85"/>
       <c r="D39" s="55" t="s">
         <v>237</v>
       </c>
@@ -9874,19 +9921,19 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="84"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="55" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="84"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="84"/>
+      <c r="A42" s="85"/>
       <c r="D42" s="55" t="s">
         <v>485</v>
       </c>
@@ -10191,6 +10238,63 @@
       <c r="F64" s="55" t="s">
         <v>520</v>
       </c>
+    </row>
+    <row r="65" spans="4:11" ht="108" x14ac:dyDescent="0.15">
+      <c r="D65" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="F65" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="J65" s="58" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="D68" s="55" t="s">
+        <v>532</v>
+      </c>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="K69" s="58"/>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D70" s="55" t="s">
+        <v>535</v>
+      </c>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="58"/>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="58"/>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="58"/>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+      <c r="K73" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
+++ b/Java/文件二进制流分析/技能表及任务指南待完善1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="19200" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="5490" windowWidth="19200" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="技能大全" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="539">
   <si>
     <t>初始技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2258,12 +2258,16 @@
     <t>boss老布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>200海盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2463,11 +2467,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="22"/>
@@ -3039,7 +3038,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3049,12 +3057,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3088,9 +3090,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3427,33 +3426,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="69" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3480,7 @@
       <c r="J2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="73"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="2" t="s">
         <v>44</v>
       </c>
@@ -3635,7 +3634,7 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3659,7 +3658,7 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="70" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -3683,7 +3682,7 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="73"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>190</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="73"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
@@ -3719,15 +3718,15 @@
       <c r="P7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="70">
+      <c r="Q7" s="73">
         <v>190</v>
       </c>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="72"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="75"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3749,7 +3748,7 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="73"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="2" t="s">
         <v>14</v>
       </c>
@@ -3771,7 +3770,7 @@
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3793,7 +3792,7 @@
         <v>290</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="70" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -3811,15 +3810,15 @@
       <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="70">
+      <c r="Q9" s="73">
         <v>290</v>
       </c>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="72"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="75"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" s="73"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="6" t="s">
         <v>133</v>
       </c>
@@ -3841,7 +3840,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="73"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="2" t="s">
         <v>99</v>
       </c>
@@ -3863,7 +3862,7 @@
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -3885,7 +3884,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="73"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="2" t="s">
         <v>46</v>
       </c>
@@ -3907,7 +3906,7 @@
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3931,7 +3930,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="73" t="s">
+      <c r="K12" s="70" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3949,15 +3948,15 @@
       <c r="P12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="70">
+      <c r="Q12" s="73">
         <v>390</v>
       </c>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="72"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="75"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="7" t="s">
         <v>55</v>
       </c>
@@ -3977,7 +3976,7 @@
         <v>390</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="73"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="2" t="s">
         <v>47</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
@@ -4021,7 +4020,7 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="73"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="7" t="s">
         <v>48</v>
       </c>
@@ -4043,7 +4042,7 @@
       <c r="T14" s="4"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4059,7 +4058,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="73" t="s">
+      <c r="K15" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -4079,7 +4078,7 @@
       <c r="T15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" s="73"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4089,7 +4088,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="73"/>
+      <c r="K16" s="70"/>
       <c r="L16" s="2" t="s">
         <v>53</v>
       </c>
@@ -4103,7 +4102,7 @@
       <c r="T16" s="4"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4113,7 +4112,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="73"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="2" t="s">
         <v>49</v>
       </c>
@@ -4127,7 +4126,7 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="2"/>
@@ -4139,7 +4138,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="73" t="s">
+      <c r="K18" s="70" t="s">
         <v>50</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -4151,15 +4150,15 @@
       <c r="P18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="70">
+      <c r="Q18" s="73">
         <v>590</v>
       </c>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="72"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="75"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4169,7 +4168,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="73"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="2" t="s">
         <v>52</v>
       </c>
@@ -4179,15 +4178,15 @@
       <c r="P19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="73">
         <v>590</v>
       </c>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="72"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="75"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4197,7 +4196,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="73"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4209,7 +4208,7 @@
       <c r="T20" s="4"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4233,7 +4232,7 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -4257,7 +4256,7 @@
       <c r="T21" s="4"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A22" s="73"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>690</v>
       </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="73"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="2" t="s">
         <v>70</v>
       </c>
@@ -4299,7 +4298,7 @@
       <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
@@ -4321,7 +4320,7 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="73"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="2" t="s">
         <v>71</v>
       </c>
@@ -4343,55 +4342,55 @@
       <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="69" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
+      <c r="A26" s="70"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +4418,7 @@
       <c r="J26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="73"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="2" t="s">
         <v>44</v>
       </c>
@@ -4567,7 +4566,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A30" s="73" t="s">
+      <c r="A30" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4591,7 +4590,7 @@
         <v>241</v>
       </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="70" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -4617,7 +4616,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
@@ -4637,7 +4636,7 @@
       <c r="J31" s="4">
         <v>190</v>
       </c>
-      <c r="K31" s="73"/>
+      <c r="K31" s="70"/>
       <c r="L31" s="8" t="s">
         <v>83</v>
       </c>
@@ -4661,7 +4660,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>190</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="73"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="2" t="s">
         <v>86</v>
       </c>
@@ -4705,7 +4704,7 @@
       <c r="T32" s="4"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4727,7 +4726,7 @@
       <c r="J33" s="4">
         <v>290</v>
       </c>
-      <c r="K33" s="73" t="s">
+      <c r="K33" s="70" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -4753,7 +4752,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" s="73"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="2" t="s">
         <v>57</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>371</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="K34" s="73"/>
+      <c r="K34" s="70"/>
       <c r="L34" s="2" t="s">
         <v>87</v>
       </c>
@@ -4799,7 +4798,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="2" t="s">
         <v>105</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>290</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="73"/>
+      <c r="K35" s="70"/>
       <c r="L35" s="2" t="s">
         <v>88</v>
       </c>
@@ -4843,7 +4842,7 @@
       <c r="T35" s="4"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4865,7 +4864,7 @@
       <c r="J36" s="4">
         <v>390</v>
       </c>
-      <c r="K36" s="73" t="s">
+      <c r="K36" s="70" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="6" t="s">
@@ -4891,7 +4890,7 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
+      <c r="A37" s="70"/>
       <c r="B37" s="2" t="s">
         <v>58</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>371</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="73"/>
+      <c r="K37" s="70"/>
       <c r="L37" s="2" t="s">
         <v>66</v>
       </c>
@@ -4937,7 +4936,7 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="73"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="2" t="s">
         <v>89</v>
       </c>
@@ -4981,7 +4980,7 @@
       <c r="T38" s="4"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" s="73" t="s">
+      <c r="A39" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="2"/>
@@ -4993,7 +4992,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="73" t="s">
+      <c r="K39" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -5019,7 +5018,7 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" s="73"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
@@ -5033,7 +5032,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="73"/>
+      <c r="K40" s="70"/>
       <c r="L40" s="6" t="s">
         <v>67</v>
       </c>
@@ -5051,7 +5050,7 @@
       <c r="T40" s="4"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="2" t="s">
         <v>61</v>
       </c>
@@ -5063,7 +5062,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="73"/>
+      <c r="K41" s="70"/>
       <c r="L41" s="2" t="s">
         <v>90</v>
       </c>
@@ -5085,7 +5084,7 @@
       <c r="T41" s="4"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="2"/>
@@ -5097,7 +5096,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="73" t="s">
+      <c r="K42" s="70" t="s">
         <v>50</v>
       </c>
       <c r="L42" s="2"/>
@@ -5111,7 +5110,7 @@
       <c r="T42" s="4"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" s="73"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -5121,7 +5120,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="73"/>
+      <c r="K43" s="70"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5133,7 +5132,7 @@
       <c r="T43" s="4"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -5143,7 +5142,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="73"/>
+      <c r="K44" s="70"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5155,7 +5154,7 @@
       <c r="T44" s="4"/>
     </row>
     <row r="45" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73" t="s">
+      <c r="A45" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -5179,7 +5178,7 @@
         <v>891</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="73" t="s">
+      <c r="K45" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L45" s="2"/>
@@ -5193,7 +5192,7 @@
       <c r="T45" s="4"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" s="73"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
@@ -5215,7 +5214,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="73"/>
+      <c r="K46" s="70"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5227,7 +5226,7 @@
       <c r="T46" s="4"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
@@ -5247,7 +5246,7 @@
       <c r="J47" s="4">
         <v>690</v>
       </c>
-      <c r="K47" s="73"/>
+      <c r="K47" s="70"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5260,22 +5259,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A24:T24"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="Q12:T12"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="Q18:T18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A18:A20"/>
@@ -5292,12 +5281,22 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="K30:K32"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q19:T19"/>
-    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A24:T24"/>
+    <mergeCell ref="L25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5506,34 +5505,34 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="73"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="42"/>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A3" s="73"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5561,7 +5560,7 @@
       <c r="J3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="73"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="43"/>
       <c r="M3" s="2" t="s">
         <v>44</v>
@@ -5738,7 +5737,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -5762,7 +5761,7 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="70" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="43">
@@ -5792,7 +5791,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>190</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="73"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="43">
         <v>19</v>
       </c>
@@ -5831,12 +5830,12 @@
       <c r="Q8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="70">
+      <c r="R8" s="73">
         <v>190</v>
       </c>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="72"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="43">
         <v>16</v>
       </c>
@@ -5845,7 +5844,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A9" s="73"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5867,7 +5866,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="73"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="43">
         <v>12</v>
       </c>
@@ -5895,7 +5894,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -5917,7 +5916,7 @@
         <v>290</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="70" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="43">
@@ -5938,18 +5937,18 @@
       <c r="Q10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="70">
+      <c r="R10" s="73">
         <v>290</v>
       </c>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="72"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="43">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="6" t="s">
         <v>133</v>
       </c>
@@ -5971,7 +5970,7 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="73"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="43">
         <v>30</v>
       </c>
@@ -5999,7 +5998,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" s="73"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2" t="s">
         <v>94</v>
       </c>
@@ -6021,7 +6020,7 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="73"/>
+      <c r="K12" s="70"/>
       <c r="L12" s="43">
         <v>26</v>
       </c>
@@ -6049,7 +6048,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -6073,7 +6072,7 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="70" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="43">
@@ -6094,18 +6093,18 @@
       <c r="Q13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="70">
+      <c r="R13" s="73">
         <v>390</v>
       </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="43">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" s="73"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="7" t="s">
         <v>55</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>390</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="73"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="43">
         <v>46</v>
       </c>
@@ -6153,7 +6152,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="73"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="2" t="s">
         <v>95</v>
       </c>
@@ -6175,7 +6174,7 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="73"/>
+      <c r="K15" s="70"/>
       <c r="L15" s="43">
         <v>42</v>
       </c>
@@ -6203,7 +6202,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -6219,7 +6218,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="43">
@@ -6245,7 +6244,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -6255,7 +6254,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="73"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="43"/>
       <c r="M17" s="2" t="s">
         <v>395</v>
@@ -6273,7 +6272,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A18" s="73"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6283,7 +6282,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="73"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="43"/>
       <c r="M18" s="2" t="s">
         <v>49</v>
@@ -6301,7 +6300,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="2"/>
@@ -6313,7 +6312,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="70" t="s">
         <v>50</v>
       </c>
       <c r="L19" s="43"/>
@@ -6326,18 +6325,18 @@
       <c r="Q19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R19" s="70">
+      <c r="R19" s="73">
         <v>590</v>
       </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="72"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="75"/>
       <c r="V19" s="43">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" s="73"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -6347,7 +6346,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="73"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="43"/>
       <c r="M20" s="2" t="s">
         <v>52</v>
@@ -6358,18 +6357,18 @@
       <c r="Q20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="70">
+      <c r="R20" s="73">
         <v>590</v>
       </c>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="72"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="75"/>
       <c r="V20" s="43">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -6379,7 +6378,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="73"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="43"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -6393,7 +6392,7 @@
       <c r="V21" s="43"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -6417,7 +6416,7 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L22" s="43">
@@ -6447,7 +6446,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="73"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>690</v>
       </c>
       <c r="J23" s="4"/>
-      <c r="K23" s="73"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="43">
         <v>76</v>
       </c>
@@ -6495,7 +6494,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="2" t="s">
         <v>79</v>
       </c>
@@ -6517,7 +6516,7 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="73"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="43">
         <v>72</v>
       </c>
@@ -6545,65 +6544,65 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
       <c r="V25" s="43"/>
       <c r="X25" s="1" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="73"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="43"/>
-      <c r="M26" s="69" t="s">
+      <c r="M26" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
       <c r="V26" s="43"/>
       <c r="X26" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6631,7 +6630,7 @@
       <c r="J27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="73"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="43"/>
       <c r="M27" s="2" t="s">
         <v>44</v>
@@ -6809,7 +6808,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="70" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6833,7 +6832,7 @@
         <v>241</v>
       </c>
       <c r="J31" s="4"/>
-      <c r="K31" s="73" t="s">
+      <c r="K31" s="70" t="s">
         <v>23</v>
       </c>
       <c r="L31" s="43">
@@ -6869,7 +6868,7 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="73"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="6" t="s">
         <v>131</v>
       </c>
@@ -6889,7 +6888,7 @@
       <c r="J32" s="4">
         <v>190</v>
       </c>
-      <c r="K32" s="73"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="43">
         <v>14</v>
       </c>
@@ -6923,7 +6922,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A33" s="73"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="2" t="s">
         <v>103</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>190</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="73"/>
+      <c r="K33" s="70"/>
       <c r="L33" s="43">
         <v>18</v>
       </c>
@@ -6977,7 +6976,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="70" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6999,7 +6998,7 @@
       <c r="J34" s="4">
         <v>290</v>
       </c>
-      <c r="K34" s="73" t="s">
+      <c r="K34" s="70" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="43">
@@ -7035,7 +7034,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
@@ -7057,7 +7056,7 @@
         <v>371</v>
       </c>
       <c r="J35" s="4"/>
-      <c r="K35" s="73"/>
+      <c r="K35" s="70"/>
       <c r="L35" s="43">
         <v>28</v>
       </c>
@@ -7091,7 +7090,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A36" s="73"/>
+      <c r="A36" s="70"/>
       <c r="B36" s="2" t="s">
         <v>105</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>290</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="73"/>
+      <c r="K36" s="70"/>
       <c r="L36" s="43">
         <v>27</v>
       </c>
@@ -7145,7 +7144,7 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A37" s="73" t="s">
+      <c r="A37" s="70" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -7167,7 +7166,7 @@
       <c r="J37" s="4">
         <v>390</v>
       </c>
-      <c r="K37" s="73" t="s">
+      <c r="K37" s="70" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="43">
@@ -7203,7 +7202,7 @@
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A38" s="73"/>
+      <c r="A38" s="70"/>
       <c r="B38" s="2" t="s">
         <v>58</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>371</v>
       </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="73"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="43">
         <v>39</v>
       </c>
@@ -7259,7 +7258,7 @@
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
+      <c r="A39" s="70"/>
       <c r="B39" s="2" t="s">
         <v>59</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>371</v>
       </c>
       <c r="J39" s="4"/>
-      <c r="K39" s="73"/>
+      <c r="K39" s="70"/>
       <c r="L39" s="43">
         <v>40</v>
       </c>
@@ -7313,7 +7312,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="2"/>
@@ -7325,7 +7324,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="73" t="s">
+      <c r="K40" s="70" t="s">
         <v>26</v>
       </c>
       <c r="L40" s="43"/>
@@ -7359,7 +7358,7 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A41" s="73"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
@@ -7373,7 +7372,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="73"/>
+      <c r="K41" s="70"/>
       <c r="L41" s="44">
         <v>57</v>
       </c>
@@ -7401,7 +7400,7 @@
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A42" s="73"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
@@ -7413,7 +7412,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="73"/>
+      <c r="K42" s="70"/>
       <c r="L42" s="44">
         <v>56</v>
       </c>
@@ -7445,7 +7444,7 @@
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="2"/>
@@ -7457,7 +7456,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="73" t="s">
+      <c r="K43" s="70" t="s">
         <v>50</v>
       </c>
       <c r="L43" s="44"/>
@@ -7477,7 +7476,7 @@
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A44" s="73"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -7487,7 +7486,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="73"/>
+      <c r="K44" s="70"/>
       <c r="L44" s="44"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7501,7 +7500,7 @@
       <c r="V44" s="43"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7511,7 +7510,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="73"/>
+      <c r="K45" s="70"/>
       <c r="L45" s="44"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7524,7 +7523,7 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="70" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -7548,7 +7547,7 @@
         <v>891</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="73" t="s">
+      <c r="K46" s="70" t="s">
         <v>68</v>
       </c>
       <c r="L46" s="44">
@@ -7565,7 +7564,7 @@
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="2" t="s">
         <v>73</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>891</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="73"/>
+      <c r="K47" s="70"/>
       <c r="L47" s="44">
         <v>78</v>
       </c>
@@ -7602,7 +7601,7 @@
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A48" s="73"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="2" t="s">
         <v>74</v>
       </c>
@@ -7622,7 +7621,7 @@
       <c r="J48" s="4">
         <v>690</v>
       </c>
-      <c r="K48" s="73"/>
+      <c r="K48" s="70"/>
       <c r="L48" s="44">
         <v>82</v>
       </c>
@@ -7656,7 +7655,7 @@
       <c r="J50" s="4">
         <v>390</v>
       </c>
-      <c r="K50" s="73"/>
+      <c r="K50" s="70"/>
       <c r="L50" s="43">
         <v>20</v>
       </c>
@@ -7671,7 +7670,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="73"/>
+      <c r="K51" s="70"/>
       <c r="L51" s="43"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.15">
@@ -7686,7 +7685,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="73"/>
+      <c r="K52" s="70"/>
       <c r="L52" s="43">
         <v>49</v>
       </c>
@@ -8136,29 +8135,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="A25:U25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="K22:K24"/>
     <mergeCell ref="K50:K52"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:J2"/>
@@ -8175,6 +8151,29 @@
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A25:U25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="M26:U26"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="K46:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8351,7 +8350,7 @@
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -8365,7 +8364,7 @@
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="12" t="s">
         <v>136</v>
       </c>
@@ -8377,7 +8376,7 @@
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>162</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -8385,7 +8384,7 @@
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="12" t="s">
         <v>161</v>
       </c>
@@ -8681,10 +8680,10 @@
       <c r="D49" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E49" s="79" t="s">
+      <c r="E49" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="F49" s="80"/>
+      <c r="F49" s="81"/>
       <c r="G49" s="28" t="s">
         <v>314</v>
       </c>
@@ -8756,7 +8755,7 @@
       <c r="C73" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="83" t="s">
         <v>309</v>
       </c>
       <c r="E73" s="32"/>
@@ -8768,7 +8767,7 @@
       <c r="C74" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="D74" s="79"/>
+      <c r="D74" s="80"/>
       <c r="E74" s="34" t="s">
         <v>320</v>
       </c>
@@ -8793,8 +8792,8 @@
       <c r="E76" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="F76" s="81"/>
-      <c r="G76" s="78"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="79"/>
     </row>
     <row r="77" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C77" s="25" t="s">
@@ -8869,13 +8868,13 @@
       <c r="C85" t="s">
         <v>479</v>
       </c>
-      <c r="J85" s="76"/>
+      <c r="J85" s="77"/>
     </row>
     <row r="86" spans="3:15" x14ac:dyDescent="0.15">
       <c r="F86" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="J86" s="76"/>
+      <c r="J86" s="77"/>
     </row>
     <row r="87" spans="3:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D87" s="46"/>
@@ -8889,7 +8888,7 @@
       <c r="D88" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="F88" s="84" t="s">
+      <c r="F88" s="85" t="s">
         <v>480</v>
       </c>
       <c r="G88" s="29"/>
@@ -8899,14 +8898,14 @@
       <c r="E89" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="F89" s="84"/>
+      <c r="F89" s="85"/>
       <c r="G89" s="29"/>
     </row>
     <row r="90" spans="3:15" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D90" s="83" t="s">
+      <c r="D90" s="84" t="s">
         <v>483</v>
       </c>
-      <c r="E90" s="79"/>
+      <c r="E90" s="80"/>
       <c r="F90" s="9" t="s">
         <v>481</v>
       </c>
@@ -8915,7 +8914,7 @@
     <row r="91" spans="3:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F91" s="20"/>
       <c r="K91" s="22"/>
-      <c r="L91" s="77" t="s">
+      <c r="L91" s="78" t="s">
         <v>502</v>
       </c>
       <c r="M91" s="20" t="s">
@@ -8935,7 +8934,7 @@
       <c r="K92" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="L92" s="78"/>
+      <c r="L92" s="79"/>
       <c r="M92" s="64" t="s">
         <v>503</v>
       </c>
@@ -9187,7 +9186,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" x14ac:dyDescent="0.15"/>
@@ -9440,7 +9439,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="86" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="55" t="s">
@@ -9463,7 +9462,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="163.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
+      <c r="A13" s="86"/>
       <c r="C13" s="55" t="s">
         <v>265</v>
       </c>
@@ -9487,7 +9486,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
+      <c r="A14" s="86"/>
       <c r="D14" s="55" t="s">
         <v>264</v>
       </c>
@@ -9502,7 +9501,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="85"/>
+      <c r="A15" s="86"/>
       <c r="G15" s="56" t="s">
         <v>251</v>
       </c>
@@ -9511,7 +9510,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="85"/>
+      <c r="A16" s="86"/>
       <c r="D16" s="55" t="s">
         <v>248</v>
       </c>
@@ -9523,7 +9522,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="85"/>
+      <c r="A17" s="86"/>
       <c r="D17" s="55" t="s">
         <v>250</v>
       </c>
@@ -9541,7 +9540,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="55" t="s">
         <v>256</v>
       </c>
@@ -9565,7 +9564,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="85"/>
+      <c r="A19" s="86"/>
       <c r="G19" s="56" t="s">
         <v>251</v>
       </c>
@@ -9574,8 +9573,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86" t="s">
         <v>150</v>
       </c>
       <c r="C20" s="55" t="s">
@@ -9601,8 +9600,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="55" t="s">
         <v>147</v>
       </c>
@@ -9611,8 +9610,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="55" t="s">
         <v>148</v>
       </c>
@@ -9630,8 +9629,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85" t="s">
+      <c r="A23" s="86"/>
+      <c r="B23" s="86" t="s">
         <v>151</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -9651,8 +9650,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="55" t="s">
         <v>138</v>
       </c>
@@ -9676,8 +9675,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
       <c r="E25" s="55" t="s">
         <v>239</v>
       </c>
@@ -9689,8 +9688,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="55" t="s">
         <v>208</v>
       </c>
@@ -9708,8 +9707,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="55" t="s">
         <v>145</v>
       </c>
@@ -9730,7 +9729,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="55" t="s">
         <v>204</v>
       </c>
@@ -9754,7 +9753,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A29" s="85"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="55" t="s">
         <v>167</v>
       </c>
@@ -9775,7 +9774,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="55" t="s">
         <v>168</v>
       </c>
@@ -9793,7 +9792,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="135" x14ac:dyDescent="0.15">
-      <c r="A31" s="85"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="55" t="s">
         <v>186</v>
       </c>
@@ -9811,25 +9810,25 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
+      <c r="A32" s="86"/>
       <c r="G32" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="85"/>
+      <c r="A33" s="86"/>
       <c r="G33" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="85"/>
+      <c r="A34" s="86"/>
       <c r="G34" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="86" t="s">
         <v>219</v>
       </c>
       <c r="B35" s="55" t="s">
@@ -9852,7 +9851,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="85"/>
+      <c r="A36" s="86"/>
       <c r="C36" s="55" t="s">
         <v>214</v>
       </c>
@@ -9870,13 +9869,13 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="85"/>
+      <c r="A37" s="86"/>
       <c r="G37" s="55" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="55" t="s">
         <v>215</v>
       </c>
@@ -9900,7 +9899,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
+      <c r="A39" s="86"/>
       <c r="D39" s="55" t="s">
         <v>237</v>
       </c>
@@ -9921,19 +9920,19 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="27.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="85"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="55" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="85"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="55" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="85"/>
+      <c r="A42" s="86"/>
       <c r="D42" s="55" t="s">
         <v>485</v>
       </c>
@@ -10243,7 +10242,7 @@
       <c r="D65" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="F65" s="86" t="s">
+      <c r="F65" s="69" t="s">
         <v>537</v>
       </c>
       <c r="J65" s="58" t="s">
@@ -10254,7 +10253,9 @@
       <c r="D68" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="F68" s="58"/>
+      <c r="F68" s="58" t="s">
+        <v>538</v>
+      </c>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
       <c r="I68" s="58"/>
